--- a/Сотрудники_import.xlsx
+++ b/Сотрудники_import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\XtEnd0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT4_Achykel_Mikail_ISP431-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="125">
   <si>
     <t>Должность</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>GenderID</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -415,9 +418,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="\+\7\(000\)\-000\-00\-00"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="\+\7\(000\)\-000\-00\-00"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -525,16 +528,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="15.75"/>
@@ -2195,6 +2198,11 @@
         <v>11</v>
       </c>
       <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
